--- a/natmiOut/OldD2/LR-pairs_lrc2p/Wnt5a-Mcam.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Wnt5a-Mcam.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H2">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>119.588706382518</v>
+        <v>121.2130545</v>
       </c>
       <c r="N2">
-        <v>119.588706382518</v>
+        <v>242.426109</v>
       </c>
       <c r="O2">
-        <v>0.48917157180479</v>
+        <v>0.4742742514031324</v>
       </c>
       <c r="P2">
-        <v>0.48917157180479</v>
+        <v>0.4028886461111009</v>
       </c>
       <c r="Q2">
-        <v>518.2771075200067</v>
+        <v>559.8937654842961</v>
       </c>
       <c r="R2">
-        <v>518.2771075200067</v>
+        <v>3359.362592905776</v>
       </c>
       <c r="S2">
-        <v>0.48917157180479</v>
+        <v>0.4742742514031324</v>
       </c>
       <c r="T2">
-        <v>0.48917157180479</v>
+        <v>0.4028886461111009</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H3">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,34 +617,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.775144660923028</v>
+        <v>0.9119573333333332</v>
       </c>
       <c r="N3">
-        <v>0.775144660923028</v>
+        <v>2.735872</v>
       </c>
       <c r="O3">
-        <v>0.00317069013981105</v>
+        <v>0.003568245048871889</v>
       </c>
       <c r="P3">
-        <v>0.00317069013981105</v>
+        <v>0.004546753526507615</v>
       </c>
       <c r="Q3">
-        <v>3.35934508303613</v>
+        <v>4.212411174912</v>
       </c>
       <c r="R3">
-        <v>3.35934508303613</v>
+        <v>37.911700574208</v>
       </c>
       <c r="S3">
-        <v>0.00317069013981105</v>
+        <v>0.003568245048871889</v>
       </c>
       <c r="T3">
-        <v>0.00317069013981105</v>
+        <v>0.004546753526507615</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H4">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.651916773333325</v>
+        <v>0.7040186666666667</v>
       </c>
       <c r="N4">
-        <v>0.651916773333325</v>
+        <v>2.112056</v>
       </c>
       <c r="O4">
-        <v>0.002666632680826353</v>
+        <v>0.002754636680714656</v>
       </c>
       <c r="P4">
-        <v>0.002666632680826353</v>
+        <v>0.003510031926267592</v>
       </c>
       <c r="Q4">
-        <v>2.825296383307674</v>
+        <v>3.251924174976001</v>
       </c>
       <c r="R4">
-        <v>2.825296383307674</v>
+        <v>29.267317574784</v>
       </c>
       <c r="S4">
-        <v>0.002666632680826353</v>
+        <v>0.002754636680714656</v>
       </c>
       <c r="T4">
-        <v>0.002666632680826353</v>
+        <v>0.003510031926267592</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H5">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,34 +741,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.659732534421166</v>
+        <v>0.6855039999999999</v>
       </c>
       <c r="N5">
-        <v>0.659732534421166</v>
+        <v>2.056512</v>
       </c>
       <c r="O5">
-        <v>0.002698602657355414</v>
+        <v>0.002682193743693282</v>
       </c>
       <c r="P5">
-        <v>0.002698602657355414</v>
+        <v>0.00341772319330189</v>
       </c>
       <c r="Q5">
-        <v>2.859168562146343</v>
+        <v>3.166403300352</v>
       </c>
       <c r="R5">
-        <v>2.859168562146343</v>
+        <v>28.497629703168</v>
       </c>
       <c r="S5">
-        <v>0.002698602657355414</v>
+        <v>0.002682193743693282</v>
       </c>
       <c r="T5">
-        <v>0.002698602657355414</v>
+        <v>0.00341772319330189</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H6">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -803,34 +803,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.7709768000793</v>
+        <v>88.26666266666666</v>
       </c>
       <c r="N6">
-        <v>81.7709768000793</v>
+        <v>264.799988</v>
       </c>
       <c r="O6">
-        <v>0.3344800563471534</v>
+        <v>0.3453638350486923</v>
       </c>
       <c r="P6">
-        <v>0.3344800563471534</v>
+        <v>0.4400718598158738</v>
       </c>
       <c r="Q6">
-        <v>354.3815015397304</v>
+        <v>407.711482323648</v>
       </c>
       <c r="R6">
-        <v>354.3815015397304</v>
+        <v>3669.403340912832</v>
       </c>
       <c r="S6">
-        <v>0.3344800563471534</v>
+        <v>0.3453638350486923</v>
       </c>
       <c r="T6">
-        <v>0.3344800563471534</v>
+        <v>0.4400718598158738</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H7">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.0254285674029</v>
+        <v>43.794673</v>
       </c>
       <c r="N7">
-        <v>41.0254285674029</v>
+        <v>87.58934600000001</v>
       </c>
       <c r="O7">
-        <v>0.1678124463700638</v>
+        <v>0.1713568380748954</v>
       </c>
       <c r="P7">
-        <v>0.1678124463700638</v>
+        <v>0.1455649854269483</v>
       </c>
       <c r="Q7">
-        <v>177.797227646828</v>
+        <v>202.291448518224</v>
       </c>
       <c r="R7">
-        <v>177.797227646828</v>
+        <v>1213.748691109344</v>
       </c>
       <c r="S7">
-        <v>0.1678124463700638</v>
+        <v>0.1713568380748954</v>
       </c>
       <c r="T7">
-        <v>0.1678124463700638</v>
+        <v>0.1455649854269483</v>
       </c>
     </row>
   </sheetData>
